--- a/Excel_profile_templates/Profile Template - CC Assessment scales Observation.xlsx
+++ b/Excel_profile_templates/Profile Template - CC Assessment scales Observation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="162">
   <si>
     <t>Select</t>
   </si>
@@ -369,7 +369,7 @@
 &lt;font color='red'&gt;The professional performing the assessment scale. &lt;/font&gt;</t>
   </si>
   <si>
-    <t>&lt;font color='red'&gt;The professional performing the Assessment. This MUST use the Practitioner resource.&lt;/font&gt;See [Practitioner resource](explore_assessment_scales.html#mapping-for-assessment-scales-practitioner) for information on how to populate the resource."</t>
+    <t>&lt;font color='red'&gt;The professional performing the Assessment. This MUST use the Practitioner resource.&lt;/font&gt;See [Practitioner resource](explore_assessment_scales.html#mapping-for-assessment-scales-practitioner) for information on how to populate the resource.</t>
   </si>
   <si>
     <t>Literal reference, Relative, internal or absolute URL
@@ -402,7 +402,7 @@
   </si>
   <si>
     <t>Comments about result
-&lt;font color='red'&gt;Supporting text may be given regarding the assessment scale as a whole or a subscale. code.text and component.code.text SHOULD be used when the scale cannot be coded using SNOMED, value.string and component.value.string should be used for the values where no suitable data type is available or applicable.&lt;/font&gt;</t>
+&lt;font color='red'&gt;Supporting text may be given regarding the assessment scale as a whole or a subscale. code.text and component.code.text SHOULD be used when the scale cannot be coded using SNOMED, value.string and component.value.string should be used for the values where no suitable data type is available or applicable.&lt;/font&gt;&lt;font color='red'&gt;&lt;b&gt;Mapping to Maternity data item = 'Comment'&lt;/b&gt;&lt;/font&gt;</t>
   </si>
   <si>
     <t>- bodySite</t>
@@ -558,15 +558,7 @@
     <t>Type of component observation (code / type)
 Binding (example): Codes identifying names of simple observations. [LOINC Codes](http://hl7.org/fhir/stu3/valueset-observation-codes.html)
 &lt;font color='red'&gt;This example valueSet is not used by Maternity record. The following SNOMED reference is used &lt;/font&gt; [Assessment scale observables simple reference set](https://termbrowser.nhs.uk/?perspective=full&amp;conceptId1=999002331000000109&amp;edition=uk-edition&amp;server=https://termbrowser.dataproducts.nhs.uk/sct-browser-api/snomed&amp;langRefset=999001261000000100,999000691000001104)
-&lt;font color='red'&gt;&lt;b&gt;Mapping to Maternity data item = 'Coded Assessment Tool Type'&lt;/b&gt;&lt;/font</t>
-  </si>
-  <si>
-    <t>"Symbol in syntax defined by the system
-&lt;font color='red'&gt;A SNOMED concept from the valueSet indicated.&lt;/font&gt;"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Representation defined by the system
-&lt;font color='red'&gt;The display associated with the SNOMED CT concept. This SHOULD be the preferred term&lt;/font&gt; </t>
+&lt;font color='red'&gt;&lt;b&gt;Mapping to Maternity data item = 'Coded Assessment Tool Type'&lt;/b&gt;&lt;/font&gt;</t>
   </si>
   <si>
     <t>Actual component result
@@ -585,7 +577,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -653,12 +645,6 @@
       <color rgb="FF474747"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <u/>
-      <sz val="8.0"/>
-      <color rgb="FF005EB8"/>
-      <name val="Helvetica Neue"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -680,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -692,7 +678,7 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -707,13 +693,10 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
@@ -725,19 +708,16 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,7 +825,7 @@
         <f>HYPERLINK("http://hl7.org/fhir/stu3/resource.html#Meta","Meta")</f>
         <v>Meta</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>17</v>
       </c>
     </row>
@@ -881,7 +861,7 @@
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -953,7 +933,7 @@
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#identifier","Identifier")</f>
         <v>Identifier</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -971,7 +951,7 @@
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -989,7 +969,7 @@
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1219,7 +1199,7 @@
       <c r="C25" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="13" t="str">
+      <c r="D25" s="12" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -1233,7 +1213,7 @@
       <c r="C26" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="14" t="str">
+      <c r="D26" s="13" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
         <v>CareConnect-Organization-1</v>
       </c>
@@ -1275,15 +1255,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" ht="15.75" hidden="1" customHeight="1">
       <c r="A29" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>2</v>
+      <c r="C29" s="14" t="s">
+        <v>4</v>
       </c>
       <c r="D29" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
@@ -1303,7 +1283,7 @@
       <c r="C30" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="13" t="str">
+      <c r="D30" s="12" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -1317,7 +1297,7 @@
       <c r="C31" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="14" t="str">
+      <c r="D31" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/CarePlan","CarePlan")</f>
         <v>CarePlan</v>
       </c>
@@ -1329,7 +1309,7 @@
       <c r="C32" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="14" t="str">
+      <c r="D32" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/DeviceRequest","DeviceRequest")</f>
         <v>DeviceRequest</v>
       </c>
@@ -1341,7 +1321,7 @@
       <c r="C33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="14" t="str">
+      <c r="D33" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/ImmunizationRecommendation","ImmunizationRecommendation")</f>
         <v>ImmunizationRecommendation</v>
       </c>
@@ -1353,7 +1333,7 @@
       <c r="C34" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="14" t="str">
+      <c r="D34" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/NutritionOrder","NutritionOrder")</f>
         <v>NutritionOrder</v>
       </c>
@@ -1365,7 +1345,7 @@
       <c r="C35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="14" t="str">
+      <c r="D35" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/ProcedureRequest","ProcedureRequest")</f>
         <v>ProcedureRequest</v>
       </c>
@@ -1377,7 +1357,7 @@
       <c r="C36" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="14" t="str">
+      <c r="D36" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/ReferralRequest","ReferralRequest")</f>
         <v>ReferralRequest</v>
       </c>
@@ -1389,7 +1369,7 @@
       <c r="C37" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="14" t="str">
+      <c r="D37" s="13" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-MedicationRequest-1","CareConnect-MedicationRequest-1")</f>
         <v>CareConnect-MedicationRequest-1</v>
       </c>
@@ -1456,14 +1436,14 @@
       <c r="B41" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D41" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E41" s="16" t="s">
+      <c r="E41" s="15" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1618,14 +1598,14 @@
       <c r="B50" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="7" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1661,7 +1641,7 @@
         <f t="shared" si="2"/>
         <v>Coding</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="7" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1675,11 +1655,11 @@
       <c r="C53" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="17" t="str">
+      <c r="D53" s="10" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid","Extension-coding-sctdescid")</f>
         <v>Extension-coding-sctdescid</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="15" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1697,7 +1677,7 @@
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="16" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1715,7 +1695,7 @@
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="7" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1733,7 +1713,7 @@
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="7" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1783,7 +1763,7 @@
       <c r="C59" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="13" t="str">
+      <c r="D59" s="12" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -1797,7 +1777,7 @@
       <c r="C60" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D60" s="14" t="str">
+      <c r="D60" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Group","Group")</f>
         <v>Group</v>
       </c>
@@ -1809,7 +1789,7 @@
       <c r="C61" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D61" s="14" t="str">
+      <c r="D61" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Device","Device")</f>
         <v>Device</v>
       </c>
@@ -1821,7 +1801,7 @@
       <c r="C62" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="14" t="str">
+      <c r="D62" s="13" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1","CareConnect-Patient-1")</f>
         <v>CareConnect-Patient-1</v>
       </c>
@@ -1833,7 +1813,7 @@
       <c r="C63" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="14" t="str">
+      <c r="D63" s="13" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Location-1","CareConnect-Location-1")</f>
         <v>CareConnect-Location-1</v>
       </c>
@@ -1903,11 +1883,11 @@
       <c r="C67" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="13" t="str">
+      <c r="D67" s="12" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1917,7 +1897,7 @@
       <c r="C68" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="14" t="str">
+      <c r="D68" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/EpisodeOfCare","EpisodeOfCare")</f>
         <v>EpisodeOfCare</v>
       </c>
@@ -1929,11 +1909,11 @@
       <c r="C69" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="14" t="str">
+      <c r="D69" s="13" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Encounter-1","CareConnect-Encounter-1")</f>
         <v>CareConnect-Encounter-1</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="7" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1951,7 +1931,7 @@
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="7" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2005,7 +1985,7 @@
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#datetime","dateTime")</f>
         <v>dateTime</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="7" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2049,11 +2029,11 @@
       <c r="C76" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="13" t="str">
+      <c r="D76" s="12" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="7" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2063,7 +2043,7 @@
       <c r="C77" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="14" t="str">
+      <c r="D77" s="13" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/RelatedPerson","RelatedPerson")</f>
         <v>RelatedPerson</v>
       </c>
@@ -2075,7 +2055,7 @@
       <c r="C78" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D78" s="14" t="str">
+      <c r="D78" s="13" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1","CareConnect-Patient-1")</f>
         <v>CareConnect-Patient-1</v>
       </c>
@@ -2087,7 +2067,7 @@
       <c r="C79" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="14" t="str">
+      <c r="D79" s="13" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1","CareConnect-Organization-1")</f>
         <v>CareConnect-Organization-1</v>
       </c>
@@ -2099,11 +2079,11 @@
       <c r="C80" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D80" s="14" t="str">
+      <c r="D80" s="13" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1","CareConnect-Practitioner-1")</f>
         <v>CareConnect-Practitioner-1</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="17" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2121,7 +2101,7 @@
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="E81" s="7" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2175,7 +2155,7 @@
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#quantity","Quantity")</f>
         <v>Quantity</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="7" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2601,7 +2581,7 @@
         <f t="shared" si="3"/>
         <v>String</v>
       </c>
-      <c r="E111" s="11" t="s">
+      <c r="E111" s="17" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2669,11 +2649,11 @@
       <c r="C115" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="17" t="str">
+      <c r="D115" s="10" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid","Extension-coding-sctdescid")</f>
         <v>Extension-coding-sctdescid</v>
       </c>
-      <c r="E115" s="18" t="s">
+      <c r="E115" s="15" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2691,7 +2671,7 @@
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E116" s="19" t="s">
+      <c r="E116" s="16" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2831,11 +2811,11 @@
       <c r="C124" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D124" s="17" t="str">
+      <c r="D124" s="10" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid","Extension-coding-sctdescid")</f>
         <v>Extension-coding-sctdescid</v>
       </c>
-      <c r="E124" s="18" t="s">
+      <c r="E124" s="15" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2853,7 +2833,7 @@
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E125" s="19" t="s">
+      <c r="E125" s="16" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2939,7 +2919,7 @@
       <c r="C130" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D130" s="13" t="str">
+      <c r="D130" s="12" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -2953,7 +2933,7 @@
       <c r="C131" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D131" s="17" t="str">
+      <c r="D131" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Specimen","Specimen")</f>
         <v>Specimen</v>
       </c>
@@ -3023,7 +3003,7 @@
       <c r="C135" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D135" s="13" t="str">
+      <c r="D135" s="12" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -3037,7 +3017,7 @@
       <c r="C136" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D136" s="17" t="str">
+      <c r="D136" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Device","Device")</f>
         <v>Device</v>
       </c>
@@ -3049,7 +3029,7 @@
       <c r="C137" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D137" s="17" t="str">
+      <c r="D137" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/DeviceMetric","DeviceMetric")</f>
         <v>DeviceMetric</v>
       </c>
@@ -3893,7 +3873,7 @@
       <c r="C184" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D184" s="13" t="str">
+      <c r="D184" s="12" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/references.html","Reference")</f>
         <v>Reference</v>
       </c>
@@ -3907,7 +3887,7 @@
       <c r="C185" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D185" s="17" t="str">
+      <c r="D185" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/QuestionnaireResponse","QuestionnaireResponse")</f>
         <v>QuestionnaireResponse</v>
       </c>
@@ -3919,7 +3899,7 @@
       <c r="C186" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D186" s="17" t="str">
+      <c r="D186" s="10" t="str">
         <f>HYPERLINK("http://hl7.org/fhir/stu3/StructureDefinition/Sequence","Sequence")</f>
         <v>Sequence</v>
       </c>
@@ -3931,7 +3911,7 @@
       <c r="C187" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D187" s="17" t="str">
+      <c r="D187" s="10" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Observation-1","CareConnect-Observation-1")</f>
         <v>CareConnect-Observation-1</v>
       </c>
@@ -4005,7 +3985,7 @@
         <f>HYPERLINK("http://hl7.org/fhir/stu3/backboneelement.html","BackboneElement")</f>
         <v>BackboneElement</v>
       </c>
-      <c r="E191" s="11" t="s">
+      <c r="E191" s="7" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4041,7 +4021,7 @@
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#codeableconcept","CodeableConcept")</f>
         <v>CodeableConcept</v>
       </c>
-      <c r="E193" s="11" t="s">
+      <c r="E193" s="17" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4077,7 +4057,7 @@
         <f t="shared" si="6"/>
         <v>Coding</v>
       </c>
-      <c r="E195" s="11" t="s">
+      <c r="E195" s="7" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4091,11 +4071,11 @@
       <c r="C196" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D196" s="17" t="str">
+      <c r="D196" s="10" t="str">
         <f>HYPERLINK("https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid","Extension-coding-sctdescid")</f>
         <v>Extension-coding-sctdescid</v>
       </c>
-      <c r="E196" s="18" t="s">
+      <c r="E196" s="15" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4113,7 +4093,7 @@
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#uri","Uri")</f>
         <v>Uri</v>
       </c>
-      <c r="E197" s="19" t="s">
+      <c r="E197" s="16" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4131,8 +4111,8 @@
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#code","Code")</f>
         <v>Code</v>
       </c>
-      <c r="E198" s="11" t="s">
-        <v>159</v>
+      <c r="E198" s="17" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="199" ht="15.75" customHeight="1">
@@ -4149,8 +4129,8 @@
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#string","String")</f>
         <v>String</v>
       </c>
-      <c r="E199" s="11" t="s">
-        <v>160</v>
+      <c r="E199" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="200" ht="15.75" hidden="1" customHeight="1">
@@ -4203,8 +4183,8 @@
         <f>HYPERLINK("http://hl7.org/fhir/stu3/datatypes.html#quantity","Quantity")</f>
         <v>Quantity</v>
       </c>
-      <c r="E202" s="11" t="s">
-        <v>161</v>
+      <c r="E202" s="7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="203" ht="15.75" customHeight="1">
@@ -4330,7 +4310,7 @@
         <v>CodeableConcept</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="213" ht="15.75" hidden="1" customHeight="1">
@@ -4618,7 +4598,7 @@
         <v>see Observation.referenceRange</v>
       </c>
       <c r="E228" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
